--- a/data_year/zb/公共管理、社会保障及其他/火灾事故/火灾直接经济损失.xlsx
+++ b/data_year/zb/公共管理、社会保障及其他/火灾事故/火灾直接经济损失.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,266 +463,60 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>115538.5</v>
+        <v>172787.3</v>
       </c>
       <c r="C2" t="n">
-        <v>152217.3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>20013.9</v>
-      </c>
-      <c r="E2" t="inlineStr"/>
+        <v>195945.2</v>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>11773.3</v>
+      </c>
       <c r="F2" t="n">
-        <v>16664.9</v>
+        <v>11384.6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>119364.7</v>
+        <v>178407.9</v>
       </c>
       <c r="C3" t="n">
-        <v>140326.1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>8288.299999999999</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
+        <v>205743.4</v>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>15775.3</v>
+      </c>
       <c r="F3" t="n">
-        <v>12673.1</v>
+        <v>11560.2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>128298</v>
+        <v>195211.1</v>
       </c>
       <c r="C4" t="n">
-        <v>154446</v>
-      </c>
-      <c r="D4" t="n">
-        <v>12188</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
+        <v>217716.3</v>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>19806.3</v>
+      </c>
       <c r="F4" t="n">
-        <v>13960</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>2003年</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>133873.1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>159088.6</v>
-      </c>
-      <c r="D5" t="n">
-        <v>11928.6</v>
-      </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="n">
-        <v>13286.9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>2004年</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>127280.3</v>
-      </c>
-      <c r="C6" t="n">
-        <v>167197.3</v>
-      </c>
-      <c r="D6" t="n">
-        <v>29550</v>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="n">
-        <v>10367</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>2005年</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>117632</v>
-      </c>
-      <c r="C7" t="n">
-        <v>136288</v>
-      </c>
-      <c r="D7" t="n">
-        <v>7790</v>
-      </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="n">
-        <v>10866</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>2006年</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>60761.9</v>
-      </c>
-      <c r="C8" t="n">
-        <v>78446.8</v>
-      </c>
-      <c r="D8" t="n">
-        <v>9541.5</v>
-      </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="n">
-        <v>8143.4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>2007年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>106219.8936</v>
-      </c>
-      <c r="C9" t="n">
-        <v>112515.8246</v>
-      </c>
-      <c r="D9" t="n">
-        <v>30.1338</v>
-      </c>
-      <c r="E9" t="n">
-        <v>4752.4452</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1513.352</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>2008年</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>132040.0131</v>
-      </c>
-      <c r="C10" t="n">
-        <v>182202.522</v>
-      </c>
-      <c r="D10" t="n">
-        <v>30027.12</v>
-      </c>
-      <c r="E10" t="n">
-        <v>10775.9812</v>
-      </c>
-      <c r="F10" t="n">
-        <v>9359.4077</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>146188.1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>162390.7</v>
-      </c>
-      <c r="D11" t="n">
-        <v>15072.2</v>
-      </c>
-      <c r="E11" t="n">
-        <v>824.9</v>
-      </c>
-      <c r="F11" t="n">
-        <v>305.5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>172787.3</v>
-      </c>
-      <c r="C12" t="n">
-        <v>195945.2</v>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="n">
-        <v>11773.3</v>
-      </c>
-      <c r="F12" t="n">
-        <v>11384.6</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>178407.9</v>
-      </c>
-      <c r="C13" t="n">
-        <v>205743.4</v>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="n">
-        <v>15775.3</v>
-      </c>
-      <c r="F13" t="n">
-        <v>11560.2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>195211.1</v>
-      </c>
-      <c r="C14" t="n">
-        <v>217716.3</v>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="n">
-        <v>19806.3</v>
-      </c>
-      <c r="F14" t="n">
         <v>2698.8</v>
       </c>
     </row>
